--- a/20 開発資料/05.改修管理/010_改修管理_精算入力.xlsx
+++ b/20 開発資料/05.改修管理/010_改修管理_精算入力.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20160" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15600" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="精算登録" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>タクチケ番号</t>
     <rPh sb="4" eb="6">
@@ -511,6 +511,41 @@
     <t>Sheet[タクチケ実車・精算手数料　精算イメージ]参照</t>
     <rPh sb="26" eb="28">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケテーブルへの精算年月の設定</t>
+    <rPh sb="10" eb="12">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求番号を設定するタイミングで精算年月も設定する</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1040,7 +1075,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1247,6 +1282,69 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1283,57 +1381,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1376,17 +1423,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3422,7 +3466,7 @@
   <dimension ref="A1:BG18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+      <selection activeCell="X10" sqref="X10:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -3432,244 +3476,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="73" t="s">
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="70" t="s">
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70" t="s">
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70" t="s">
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70" t="s">
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="91"/>
+      <c r="AZ1" s="91"/>
+      <c r="BA1" s="91"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="72">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="93">
         <v>41611</v>
       </c>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="70" t="s">
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="91"/>
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
+      <c r="BA2" s="91"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="70"/>
-      <c r="BA3" s="70"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="91"/>
+      <c r="BA3" s="91"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="70"/>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="70"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="70"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="70"/>
-      <c r="BA4" s="70"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="91"/>
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="65"/>
@@ -3696,68 +3740,68 @@
       <c r="A6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86" t="s">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86" t="s">
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86" t="s">
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="86"/>
-      <c r="AO6" s="86"/>
-      <c r="AP6" s="86"/>
-      <c r="AQ6" s="86"/>
-      <c r="AR6" s="86"/>
-      <c r="AS6" s="86"/>
-      <c r="AT6" s="86"/>
-      <c r="AU6" s="86"/>
-      <c r="AV6" s="86"/>
-      <c r="AW6" s="87" t="s">
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="84"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="84"/>
+      <c r="AU6" s="84"/>
+      <c r="AV6" s="84"/>
+      <c r="AW6" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AX6" s="87"/>
-      <c r="AY6" s="87"/>
-      <c r="AZ6" s="87"/>
-      <c r="BA6" s="88"/>
+      <c r="AX6" s="85"/>
+      <c r="AY6" s="85"/>
+      <c r="AZ6" s="85"/>
+      <c r="BA6" s="86"/>
       <c r="BB6" s="65"/>
       <c r="BC6" s="65"/>
       <c r="BD6" s="65"/>
@@ -3769,304 +3813,308 @@
       <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="83" t="s">
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="83"/>
-      <c r="AK7" s="82" t="s">
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="88"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="88"/>
+      <c r="AG7" s="88"/>
+      <c r="AH7" s="88"/>
+      <c r="AI7" s="88"/>
+      <c r="AJ7" s="88"/>
+      <c r="AK7" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="82"/>
-      <c r="AO7" s="82"/>
-      <c r="AP7" s="82"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="82"/>
-      <c r="AS7" s="82"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="82"/>
-      <c r="AV7" s="82"/>
-      <c r="AW7" s="84"/>
-      <c r="AX7" s="84"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="84"/>
-      <c r="BA7" s="85"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="87"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="87"/>
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="87"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="90"/>
     </row>
     <row r="8" spans="1:59" s="64" customFormat="1" ht="33.75" customHeight="1">
       <c r="A8" s="69">
         <v>2</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="90" t="s">
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="89"/>
-      <c r="AN8" s="89"/>
-      <c r="AO8" s="89"/>
-      <c r="AP8" s="89"/>
-      <c r="AQ8" s="89"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="89"/>
-      <c r="AV8" s="89"/>
-      <c r="AW8" s="91"/>
-      <c r="AX8" s="91"/>
-      <c r="AY8" s="91"/>
-      <c r="AZ8" s="91"/>
-      <c r="BA8" s="92"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="78"/>
+      <c r="AE8" s="78"/>
+      <c r="AF8" s="78"/>
+      <c r="AG8" s="78"/>
+      <c r="AH8" s="78"/>
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="78"/>
+      <c r="AK8" s="78"/>
+      <c r="AL8" s="78"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="78"/>
+      <c r="AO8" s="78"/>
+      <c r="AP8" s="78"/>
+      <c r="AQ8" s="78"/>
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="78"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="78"/>
+      <c r="AW8" s="82"/>
+      <c r="AX8" s="82"/>
+      <c r="AY8" s="82"/>
+      <c r="AZ8" s="82"/>
+      <c r="BA8" s="83"/>
     </row>
     <row r="9" spans="1:59" s="64" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="69">
         <v>3</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="90" t="s">
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="89"/>
-      <c r="AQ9" s="89"/>
-      <c r="AR9" s="89"/>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="89"/>
-      <c r="AV9" s="89"/>
-      <c r="AW9" s="93"/>
-      <c r="AX9" s="93"/>
-      <c r="AY9" s="93"/>
-      <c r="AZ9" s="93"/>
-      <c r="BA9" s="94"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="79"/>
+      <c r="AX9" s="79"/>
+      <c r="AY9" s="79"/>
+      <c r="AZ9" s="79"/>
+      <c r="BA9" s="80"/>
     </row>
-    <row r="10" spans="1:59" s="64" customFormat="1" ht="18.75" customHeight="1">
+    <row r="10" spans="1:59" s="64" customFormat="1" ht="43.5" customHeight="1">
       <c r="A10" s="69">
         <v>4</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="89"/>
-      <c r="AQ10" s="89"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="93"/>
-      <c r="AX10" s="93"/>
-      <c r="AY10" s="93"/>
-      <c r="AZ10" s="93"/>
-      <c r="BA10" s="94"/>
+      <c r="B10" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="118"/>
+      <c r="AE10" s="118"/>
+      <c r="AF10" s="118"/>
+      <c r="AG10" s="118"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="78"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="80"/>
     </row>
     <row r="11" spans="1:59" s="64" customFormat="1" ht="36" customHeight="1">
       <c r="A11" s="67">
         <v>5</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="96"/>
-      <c r="AG11" s="96"/>
-      <c r="AH11" s="96"/>
-      <c r="AI11" s="96"/>
-      <c r="AJ11" s="96"/>
-      <c r="AK11" s="95"/>
-      <c r="AL11" s="95"/>
-      <c r="AM11" s="95"/>
-      <c r="AN11" s="95"/>
-      <c r="AO11" s="95"/>
-      <c r="AP11" s="95"/>
-      <c r="AQ11" s="95"/>
-      <c r="AR11" s="95"/>
-      <c r="AS11" s="95"/>
-      <c r="AT11" s="95"/>
-      <c r="AU11" s="95"/>
-      <c r="AV11" s="95"/>
-      <c r="AW11" s="97"/>
-      <c r="AX11" s="97"/>
-      <c r="AY11" s="97"/>
-      <c r="AZ11" s="97"/>
-      <c r="BA11" s="98"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="74"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="76"/>
+      <c r="AX11" s="76"/>
+      <c r="AY11" s="76"/>
+      <c r="AZ11" s="76"/>
+      <c r="BA11" s="77"/>
     </row>
     <row r="12" spans="1:59" s="64" customFormat="1"/>
     <row r="13" spans="1:59" s="64" customFormat="1"/>
@@ -4077,36 +4125,6 @@
     <row r="18" s="64" customFormat="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AJ11"/>
-    <mergeCell ref="AK11:AV11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
     <mergeCell ref="J2:O4"/>
@@ -4120,6 +4138,36 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AJ11"/>
+    <mergeCell ref="AK11:AV11"/>
+    <mergeCell ref="AW11:BA11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -4134,7 +4182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
@@ -4196,10 +4244,10 @@
       <c r="J15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="101" t="s">
+      <c r="K15" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="102"/>
+      <c r="L15" s="106"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" thickTop="1" thickBot="1">
       <c r="A16" s="30"/>
@@ -4218,8 +4266,8 @@
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="108"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="112"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" thickTop="1">
       <c r="A17" s="36" t="s">
@@ -4248,8 +4296,8 @@
       <c r="J17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="105"/>
-      <c r="L17" s="106"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="49" t="s">
@@ -4280,10 +4328,10 @@
       <c r="J18" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="103" t="s">
+      <c r="K18" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="104"/>
+      <c r="L18" s="108"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" thickBot="1">
       <c r="A19" s="42" t="s">
@@ -4312,10 +4360,10 @@
       <c r="J19" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="99" t="s">
+      <c r="K19" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="100"/>
+      <c r="L19" s="104"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" thickTop="1">
       <c r="A20" s="19" t="s">
@@ -4344,8 +4392,8 @@
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="110"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="13" t="s">
@@ -4376,10 +4424,10 @@
       <c r="J21" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="111" t="s">
+      <c r="K21" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="112"/>
+      <c r="L21" s="116"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" thickBot="1">
       <c r="A22" s="42" t="s">
@@ -4410,10 +4458,10 @@
       <c r="J22" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="99" t="s">
+      <c r="K22" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="100"/>
+      <c r="L22" s="104"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" thickTop="1"/>
     <row r="41" spans="8:9">
@@ -4733,88 +4781,88 @@
       </c>
     </row>
     <row r="67" spans="9:18">
-      <c r="I67" s="113"/>
-      <c r="J67" s="113"/>
-      <c r="K67" s="113"/>
-      <c r="L67" s="113"/>
-      <c r="M67" s="113"/>
-      <c r="N67" s="113"/>
-      <c r="O67" s="113"/>
-      <c r="P67" s="113"/>
-      <c r="Q67" s="113"/>
-      <c r="R67" s="113"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="70"/>
+      <c r="N67" s="70"/>
+      <c r="O67" s="70"/>
+      <c r="P67" s="70"/>
+      <c r="Q67" s="70"/>
+      <c r="R67" s="70"/>
     </row>
     <row r="68" spans="9:18">
-      <c r="I68" s="113"/>
-      <c r="J68" s="113"/>
-      <c r="K68" s="113"/>
-      <c r="L68" s="113"/>
-      <c r="M68" s="113"/>
-      <c r="N68" s="113"/>
-      <c r="O68" s="113"/>
-      <c r="P68" s="113"/>
-      <c r="Q68" s="113"/>
-      <c r="R68" s="113"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="70"/>
+      <c r="N68" s="70"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="70"/>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70"/>
     </row>
     <row r="69" spans="9:18">
-      <c r="I69" s="113"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="115"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="116"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="114"/>
-      <c r="Q69" s="114"/>
-      <c r="R69" s="113"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="73"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="70"/>
     </row>
     <row r="70" spans="9:18">
-      <c r="I70" s="113"/>
-      <c r="J70" s="114"/>
-      <c r="K70" s="115"/>
-      <c r="L70" s="114"/>
-      <c r="M70" s="114"/>
-      <c r="N70" s="116"/>
-      <c r="O70" s="114"/>
-      <c r="P70" s="114"/>
-      <c r="Q70" s="114"/>
-      <c r="R70" s="113"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="71"/>
+      <c r="M70" s="71"/>
+      <c r="N70" s="73"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="70"/>
     </row>
     <row r="71" spans="9:18">
-      <c r="I71" s="113"/>
-      <c r="J71" s="113"/>
-      <c r="K71" s="113"/>
-      <c r="L71" s="113"/>
-      <c r="M71" s="113"/>
-      <c r="N71" s="113"/>
-      <c r="O71" s="113"/>
-      <c r="P71" s="113"/>
-      <c r="Q71" s="113"/>
-      <c r="R71" s="113"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="70"/>
+      <c r="M71" s="70"/>
+      <c r="N71" s="70"/>
+      <c r="O71" s="70"/>
+      <c r="P71" s="70"/>
+      <c r="Q71" s="70"/>
+      <c r="R71" s="70"/>
     </row>
     <row r="72" spans="9:18">
-      <c r="I72" s="113"/>
-      <c r="J72" s="113"/>
-      <c r="K72" s="113"/>
-      <c r="L72" s="113"/>
-      <c r="M72" s="113"/>
-      <c r="N72" s="113"/>
-      <c r="O72" s="113"/>
-      <c r="P72" s="113"/>
-      <c r="Q72" s="113"/>
-      <c r="R72" s="113"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="70"/>
+      <c r="M72" s="70"/>
+      <c r="N72" s="70"/>
+      <c r="O72" s="70"/>
+      <c r="P72" s="70"/>
+      <c r="Q72" s="70"/>
+      <c r="R72" s="70"/>
     </row>
     <row r="73" spans="9:18">
-      <c r="I73" s="113"/>
-      <c r="J73" s="113"/>
-      <c r="K73" s="113"/>
-      <c r="L73" s="113"/>
-      <c r="M73" s="113"/>
-      <c r="N73" s="113"/>
-      <c r="O73" s="113"/>
-      <c r="P73" s="113"/>
-      <c r="Q73" s="113"/>
-      <c r="R73" s="113"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="70"/>
+      <c r="M73" s="70"/>
+      <c r="N73" s="70"/>
+      <c r="O73" s="70"/>
+      <c r="P73" s="70"/>
+      <c r="Q73" s="70"/>
+      <c r="R73" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/20 開発資料/05.改修管理/010_改修管理_精算入力.xlsx
+++ b/20 開発資料/05.改修管理/010_改修管理_精算入力.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15600" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15600" windowHeight="7830" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="精算登録" sheetId="4" r:id="rId1"/>
     <sheet name="タクチケ実車・精算手数料　精算イメージ" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="参加者一覧CSV出力項目_1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">精算登録!$1:$5</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
   <si>
     <t>タクチケ番号</t>
     <rPh sb="4" eb="6">
@@ -546,6 +547,520 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通・宿泊データ</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュクハク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会番号</t>
+  </si>
+  <si>
+    <t>講演会日</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>講演会名</t>
+  </si>
+  <si>
+    <t>参加者ID</t>
+  </si>
+  <si>
+    <t>医師名</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>登録日</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求番号</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出欠状況</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>宿泊費</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>宿泊取消料</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>宿泊費+宿泊取消料</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>MTG13-00007193</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Test_BJYCN</t>
+  </si>
+  <si>
+    <t>MTPID000000004</t>
+  </si>
+  <si>
+    <t>佐藤　一郎</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチロウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>MTG13-00007193</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>MTPID000000005</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>鈴木　太郎</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>MTPID000000006</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>山田　次郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジロウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>MTPID000000007</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>加藤　三郎</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>MTPID000000008</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>MTPID000000009</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nozomiへ送信済みのデータは変更不可とする。</t>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ステータス　　：　【送信済】　</t>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　＊　管理者はステータスを【送信済】から【未送信】へ変更可能</t>
+    <rPh sb="3" eb="6">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 送信済のデータはバイエル様より指示があった場合のみ、未送信へ変更する。</t>
+    <rPh sb="1" eb="3">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 送信済後、別の精算がある場合は新規に精算番号を取得する</t>
+    <rPh sb="1" eb="3">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②　精算データ新規登録時　（精算番号が表示されていない）</t>
+    <rPh sb="2" eb="4">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【参加者一覧CSV作成】ボタンクリック</t>
+    <rPh sb="1" eb="4">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会番号＝画面講演会番号　且つ　請求番号未登録のデータを抽出</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ミトウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・対象データがない場合は、対象データがありませんのメッセージ出力</t>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・対象データがある場合</t>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・精算番号を採番する</t>
+    <rPh sb="1" eb="3">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・請求データを登録する</t>
+    <rPh sb="1" eb="3">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・対象データに精算番号を登録する。</t>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ＣＳＶを出力する。</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ＣＳＶの金額を画面に入力する</t>
+    <rPh sb="5" eb="7">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③　精算データ新規登録時　（精算番号が表示されている）</t>
+    <rPh sb="2" eb="4">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会番号＝画面講演会番号　且つ　（請求番号未登録のデータを抽出　又は　請求番号＝画面請求番号）</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ミトウロク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・精算番号が未設定のデータに精算番号を登録する。</t>
+    <rPh sb="1" eb="3">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ミセッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -557,7 +1072,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -662,8 +1177,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,8 +1210,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1064,8 +1598,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1074,8 +1621,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1294,6 +1844,90 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1306,81 +1940,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1423,21 +1982,82 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="J401K" xfId="3"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3176,6 +3796,364 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297309</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="123825" y="1781175"/>
+          <a:ext cx="5174109" cy="3876675"/>
+          <a:chOff x="1790700" y="1752600"/>
+          <a:chExt cx="6305549" cy="4724401"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2056074" y="1885951"/>
+            <a:ext cx="5763950" cy="3619500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6207125" y="5686427"/>
+            <a:ext cx="1279525" cy="561974"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT/>
+          </a:sp3d>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>タクチケ精算データ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CSV</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4244975" y="5686427"/>
+            <a:ext cx="1276350" cy="561974"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT/>
+          </a:sp3d>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>一覧</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CSV</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2047875" y="5695952"/>
+            <a:ext cx="1273175" cy="561974"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT/>
+          </a:sp3d>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>参加者一覧</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CSV</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1790700" y="1752600"/>
+            <a:ext cx="6305549" cy="4724401"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="0000CC"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -3476,244 +4454,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="94" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="91" t="s">
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91" t="s">
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91"/>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91" t="s">
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="91"/>
-      <c r="AV1" s="91"/>
-      <c r="AW1" s="91" t="s">
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="91"/>
-      <c r="AY1" s="91"/>
-      <c r="AZ1" s="91"/>
-      <c r="BA1" s="91"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="99"/>
-      <c r="AH2" s="93">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="76">
         <v>41611</v>
       </c>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="91" t="s">
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="91"/>
-      <c r="AP2" s="91"/>
-      <c r="AQ2" s="91"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="91"/>
-      <c r="AY2" s="91"/>
-      <c r="AZ2" s="91"/>
-      <c r="BA2" s="91"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="76"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="93"/>
-      <c r="AT3" s="93"/>
-      <c r="AU3" s="93"/>
-      <c r="AV3" s="93"/>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="91"/>
-      <c r="BA3" s="91"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="91"/>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="65"/>
@@ -3740,68 +4718,68 @@
       <c r="A6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84" t="s">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84" t="s">
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="84" t="s">
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="90"/>
+      <c r="AH6" s="90"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="90"/>
+      <c r="AK6" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="AL6" s="84"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="84"/>
-      <c r="AV6" s="84"/>
-      <c r="AW6" s="85" t="s">
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AX6" s="85"/>
-      <c r="AY6" s="85"/>
-      <c r="AZ6" s="85"/>
-      <c r="BA6" s="86"/>
+      <c r="AX6" s="91"/>
+      <c r="AY6" s="91"/>
+      <c r="AZ6" s="91"/>
+      <c r="BA6" s="92"/>
       <c r="BB6" s="65"/>
       <c r="BC6" s="65"/>
       <c r="BD6" s="65"/>
@@ -3813,308 +4791,308 @@
       <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="88" t="s">
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="88"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="88"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="88"/>
-      <c r="AI7" s="88"/>
-      <c r="AJ7" s="88"/>
-      <c r="AK7" s="87" t="s">
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="AL7" s="87"/>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="87"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="87"/>
-      <c r="AR7" s="87"/>
-      <c r="AS7" s="87"/>
-      <c r="AT7" s="87"/>
-      <c r="AU7" s="87"/>
-      <c r="AV7" s="87"/>
-      <c r="AW7" s="89"/>
-      <c r="AX7" s="89"/>
-      <c r="AY7" s="89"/>
-      <c r="AZ7" s="89"/>
-      <c r="BA7" s="90"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="86"/>
+      <c r="AO7" s="86"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="86"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="86"/>
+      <c r="AW7" s="88"/>
+      <c r="AX7" s="88"/>
+      <c r="AY7" s="88"/>
+      <c r="AZ7" s="88"/>
+      <c r="BA7" s="89"/>
     </row>
     <row r="8" spans="1:59" s="64" customFormat="1" ht="33.75" customHeight="1">
       <c r="A8" s="69">
         <v>2</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78" t="s">
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="81" t="s">
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="78"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="78"/>
-      <c r="AO8" s="78"/>
-      <c r="AP8" s="78"/>
-      <c r="AQ8" s="78"/>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="82"/>
-      <c r="AX8" s="82"/>
-      <c r="AY8" s="82"/>
-      <c r="AZ8" s="82"/>
-      <c r="BA8" s="83"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="93"/>
+      <c r="AW8" s="95"/>
+      <c r="AX8" s="95"/>
+      <c r="AY8" s="95"/>
+      <c r="AZ8" s="95"/>
+      <c r="BA8" s="96"/>
     </row>
     <row r="9" spans="1:59" s="64" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="69">
         <v>3</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="81" t="s">
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="78"/>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="79"/>
-      <c r="AX9" s="79"/>
-      <c r="AY9" s="79"/>
-      <c r="AZ9" s="79"/>
-      <c r="BA9" s="80"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="93"/>
+      <c r="AW9" s="97"/>
+      <c r="AX9" s="97"/>
+      <c r="AY9" s="97"/>
+      <c r="AZ9" s="97"/>
+      <c r="BA9" s="98"/>
     </row>
     <row r="10" spans="1:59" s="64" customFormat="1" ht="43.5" customHeight="1">
       <c r="A10" s="69">
         <v>4</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="117" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="118"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="118"/>
-      <c r="AG10" s="118"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="119"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="78"/>
-      <c r="AO10" s="78"/>
-      <c r="AP10" s="78"/>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="78"/>
-      <c r="AS10" s="78"/>
-      <c r="AT10" s="78"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="80"/>
+      <c r="Y10" s="100"/>
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="100"/>
+      <c r="AB10" s="100"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="101"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="93"/>
+      <c r="AW10" s="97"/>
+      <c r="AX10" s="97"/>
+      <c r="AY10" s="97"/>
+      <c r="AZ10" s="97"/>
+      <c r="BA10" s="98"/>
     </row>
     <row r="11" spans="1:59" s="64" customFormat="1" ht="36" customHeight="1">
       <c r="A11" s="67">
         <v>5</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="75"/>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="74"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="74"/>
-      <c r="AN11" s="74"/>
-      <c r="AO11" s="74"/>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="74"/>
-      <c r="AS11" s="74"/>
-      <c r="AT11" s="74"/>
-      <c r="AU11" s="74"/>
-      <c r="AV11" s="74"/>
-      <c r="AW11" s="76"/>
-      <c r="AX11" s="76"/>
-      <c r="AY11" s="76"/>
-      <c r="AZ11" s="76"/>
-      <c r="BA11" s="77"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="103"/>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="103"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="103"/>
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="102"/>
+      <c r="AO11" s="102"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="102"/>
+      <c r="AR11" s="102"/>
+      <c r="AS11" s="102"/>
+      <c r="AT11" s="102"/>
+      <c r="AU11" s="102"/>
+      <c r="AV11" s="102"/>
+      <c r="AW11" s="104"/>
+      <c r="AX11" s="104"/>
+      <c r="AY11" s="104"/>
+      <c r="AZ11" s="104"/>
+      <c r="BA11" s="105"/>
     </row>
     <row r="12" spans="1:59" s="64" customFormat="1"/>
     <row r="13" spans="1:59" s="64" customFormat="1"/>
@@ -4125,6 +5103,36 @@
     <row r="18" s="64" customFormat="1"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AJ11"/>
+    <mergeCell ref="AK11:AV11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
     <mergeCell ref="J2:O4"/>
@@ -4138,36 +5146,6 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AJ11"/>
-    <mergeCell ref="AK11:AV11"/>
-    <mergeCell ref="AW11:BA11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -4182,8 +5160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4244,10 +5222,10 @@
       <c r="J15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="105" t="s">
+      <c r="K15" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="106"/>
+      <c r="L15" s="109"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" thickTop="1" thickBot="1">
       <c r="A16" s="30"/>
@@ -4266,8 +5244,8 @@
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="115"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" thickTop="1">
       <c r="A17" s="36" t="s">
@@ -4296,8 +5274,8 @@
       <c r="J17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="109"/>
-      <c r="L17" s="110"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="113"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="49" t="s">
@@ -4328,10 +5306,10 @@
       <c r="J18" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="107" t="s">
+      <c r="K18" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="108"/>
+      <c r="L18" s="111"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" thickBot="1">
       <c r="A19" s="42" t="s">
@@ -4360,10 +5338,10 @@
       <c r="J19" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="103" t="s">
+      <c r="K19" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="104"/>
+      <c r="L19" s="107"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" thickTop="1">
       <c r="A20" s="19" t="s">
@@ -4392,8 +5370,8 @@
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="114"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="117"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="13" t="s">
@@ -4424,10 +5402,10 @@
       <c r="J21" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="115" t="s">
+      <c r="K21" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="116"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" thickBot="1">
       <c r="A22" s="42" t="s">
@@ -4458,10 +5436,10 @@
       <c r="J22" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="103" t="s">
+      <c r="K22" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="104"/>
+      <c r="L22" s="107"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" thickTop="1"/>
     <row r="41" spans="8:9">
@@ -4908,4 +5886,564 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="21" width="5" style="121"/>
+    <col min="22" max="22" width="6.7109375" style="121" customWidth="1"/>
+    <col min="23" max="23" width="5" style="121"/>
+    <col min="24" max="25" width="5" style="121" customWidth="1"/>
+    <col min="26" max="28" width="5" style="121"/>
+    <col min="29" max="29" width="5.7109375" style="121" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5" style="121"/>
+    <col min="31" max="31" width="6.7109375" style="121" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="5" style="121"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="21.75" customHeight="1">
+      <c r="A1" s="120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="125" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A2" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="124" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="122" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+    </row>
+    <row r="3" spans="1:31" s="125" customFormat="1">
+      <c r="A3" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127">
+        <v>41654</v>
+      </c>
+      <c r="E3" s="127"/>
+      <c r="F3" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="128">
+        <v>41649</v>
+      </c>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="130">
+        <v>22000</v>
+      </c>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130">
+        <f t="shared" ref="AC3:AC8" si="0">W3+Z3</f>
+        <v>22000</v>
+      </c>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="130"/>
+    </row>
+    <row r="4" spans="1:31" s="125" customFormat="1">
+      <c r="A4" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132">
+        <v>41654</v>
+      </c>
+      <c r="E4" s="132"/>
+      <c r="F4" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="133">
+        <v>41649</v>
+      </c>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="135">
+        <v>22000</v>
+      </c>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="135"/>
+      <c r="AB4" s="135"/>
+      <c r="AC4" s="135">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+      <c r="AD4" s="135"/>
+      <c r="AE4" s="135"/>
+    </row>
+    <row r="5" spans="1:31" s="125" customFormat="1">
+      <c r="A5" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="132">
+        <v>41654</v>
+      </c>
+      <c r="E5" s="132"/>
+      <c r="F5" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="133">
+        <v>41649</v>
+      </c>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135"/>
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135">
+        <v>3150</v>
+      </c>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135">
+        <f t="shared" si="0"/>
+        <v>3150</v>
+      </c>
+      <c r="AD5" s="135"/>
+      <c r="AE5" s="135"/>
+    </row>
+    <row r="6" spans="1:31" s="125" customFormat="1">
+      <c r="A6" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132">
+        <v>41654</v>
+      </c>
+      <c r="E6" s="132"/>
+      <c r="F6" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="133">
+        <v>41649</v>
+      </c>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135"/>
+    </row>
+    <row r="7" spans="1:31" s="125" customFormat="1">
+      <c r="A7" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="132">
+        <v>41654</v>
+      </c>
+      <c r="E7" s="132"/>
+      <c r="F7" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="133">
+        <v>41664</v>
+      </c>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="131"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="135">
+        <v>3150</v>
+      </c>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="135">
+        <f t="shared" si="0"/>
+        <v>3150</v>
+      </c>
+      <c r="AD7" s="135"/>
+      <c r="AE7" s="135"/>
+    </row>
+    <row r="8" spans="1:31" s="125" customFormat="1">
+      <c r="A8" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="137">
+        <v>41654</v>
+      </c>
+      <c r="E8" s="137"/>
+      <c r="F8" s="136" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="138">
+        <v>41664</v>
+      </c>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="140">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="140"/>
+      <c r="AE8" s="140"/>
+    </row>
+    <row r="9" spans="1:31" s="141" customFormat="1"/>
+    <row r="10" spans="1:31" s="141" customFormat="1"/>
+    <row r="11" spans="1:31" s="141" customFormat="1">
+      <c r="R11" s="141" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="141" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="S12" s="121" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="S13" s="121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="T14" s="121" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="T15" s="121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22">
+      <c r="R19" s="121" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22">
+      <c r="R20" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="S20" s="121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22">
+      <c r="T21" s="121" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22">
+      <c r="U22" s="121" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22">
+      <c r="U23" s="121" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22">
+      <c r="V24" s="121" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22">
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="V25" s="121" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22">
+      <c r="V26" s="121" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22">
+      <c r="V27" s="121" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22">
+      <c r="V28" s="121" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22">
+      <c r="R31" s="121" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22">
+      <c r="S32" s="121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="20:22">
+      <c r="T33" s="121" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="20:22">
+      <c r="U34" s="121" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="20:22">
+      <c r="U35" s="121" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="20:22">
+      <c r="V36" s="121" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="20:22">
+      <c r="V37" s="121" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="20:22">
+      <c r="V38" s="121" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>